--- a/Silver Nanoplates/SAXS Structural Exploration/SAXS/Volumes_and_Structure.xlsx
+++ b/Silver Nanoplates/SAXS Structural Exploration/SAXS/Volumes_and_Structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d5786df926ef1ef/Documents/Retrosynthesis/Silver Nanoplates/Size Exploration/SAXS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d5786df926ef1ef/Documents/Retrosynthesis/papers/Silver Nanoplates/SAXS Structural Exploration/SAXS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{F9538B53-92CE-4155-91E5-0E3428A89105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22DE4B74-EDA2-42B4-BC4C-975AC21A0E1A}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{F9538B53-92CE-4155-91E5-0E3428A89105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C992B5A6-89ED-4187-AD7F-1D32DBE043E9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{92793990-8477-495E-8A08-3231AC56CA8B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{92793990-8477-495E-8A08-3231AC56CA8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,7 +368,7 @@
     <t>P_radius_pd</t>
   </si>
   <si>
-    <t>Peak_WV</t>
+    <t>Peak WV</t>
   </si>
 </sst>
 </file>
@@ -404,15 +404,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,9 +432,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -475,7 +472,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -581,7 +578,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -723,7 +720,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -733,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1D8DCA-BC50-481A-A149-2E518E111EE3}">
   <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -747,8 +744,8 @@
     <col min="6" max="6" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -794,7 +791,7 @@
       <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -836,7 +833,7 @@
         <v>2.0991694492823799E-4</v>
       </c>
       <c r="O2">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -877,7 +874,7 @@
         <v>1.12159202245126E-4</v>
       </c>
       <c r="O3">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -924,7 +921,7 @@
         <v>4.0019213100717503E-5</v>
       </c>
       <c r="O4">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -1007,7 +1004,7 @@
         <v>2.0181048613606101E-4</v>
       </c>
       <c r="O6">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -1048,7 +1045,7 @@
         <v>2.0170955390626499E-4</v>
       </c>
       <c r="O7">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -1089,7 +1086,7 @@
         <v>1.89656208171945E-4</v>
       </c>
       <c r="O8">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -1130,7 +1127,7 @@
         <v>2.2805049596856999E-4</v>
       </c>
       <c r="O9">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -1172,7 +1169,7 @@
       </c>
       <c r="M10" s="2"/>
       <c r="O10">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -1213,7 +1210,7 @@
         <v>2.20944725332962E-4</v>
       </c>
       <c r="O11">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -1254,7 +1251,7 @@
         <v>1.4137337330212001E-4</v>
       </c>
       <c r="O12">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -1295,7 +1292,7 @@
         <v>2.6059103905167299E-4</v>
       </c>
       <c r="O13">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -1336,7 +1333,7 @@
         <v>2.2277721696723499E-4</v>
       </c>
       <c r="O14">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -1377,7 +1374,7 @@
         <v>1.8619627346450599E-4</v>
       </c>
       <c r="O15">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -1418,7 +1415,7 @@
         <v>1.61839207664063E-4</v>
       </c>
       <c r="O16">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -1459,7 +1456,7 @@
         <v>2.0703403120109201E-4</v>
       </c>
       <c r="O17">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -1501,7 +1498,7 @@
       </c>
       <c r="M18" s="2"/>
       <c r="O18">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -1542,7 +1539,7 @@
         <v>2.4020450633410899E-4</v>
       </c>
       <c r="O19">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -1583,7 +1580,7 @@
         <v>1.9474202655324501E-4</v>
       </c>
       <c r="O20">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -1625,7 +1622,7 @@
       </c>
       <c r="M21" s="2"/>
       <c r="O21">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -1666,7 +1663,7 @@
         <v>1.6546169553604799E-4</v>
       </c>
       <c r="O22">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -1707,7 +1704,7 @@
         <v>2.12092284357006E-4</v>
       </c>
       <c r="O23">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -1748,7 +1745,7 @@
         <v>1.38104943476077E-4</v>
       </c>
       <c r="O24">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -1789,7 +1786,7 @@
         <v>1.57643169946801E-4</v>
       </c>
       <c r="O25">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -1871,7 +1868,7 @@
         <v>1.20811437120955E-4</v>
       </c>
       <c r="O27">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -1912,7 +1909,7 @@
         <v>2.35753152408484E-4</v>
       </c>
       <c r="O28">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -1954,7 +1951,7 @@
       </c>
       <c r="M29" s="2"/>
       <c r="O29">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -2161,7 +2158,7 @@
       </c>
       <c r="M34" s="2"/>
       <c r="O34">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -2202,7 +2199,7 @@
         <v>1.112038107614E-4</v>
       </c>
       <c r="O35">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -2243,7 +2240,7 @@
         <v>2.80616640848256E-4</v>
       </c>
       <c r="O36">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -2284,7 +2281,7 @@
         <v>2.9647696290199398E-4</v>
       </c>
       <c r="O37">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -2326,7 +2323,7 @@
       </c>
       <c r="M38" s="2"/>
       <c r="O38">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -2367,7 +2364,7 @@
         <v>1.8279049186772399E-4</v>
       </c>
       <c r="O39">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -2409,7 +2406,7 @@
       </c>
       <c r="M40" s="2"/>
       <c r="O40">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -2450,7 +2447,7 @@
         <v>2.08666860125924E-4</v>
       </c>
       <c r="O41">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -2497,7 +2494,7 @@
         <v>1.87684034083766E-5</v>
       </c>
       <c r="O42">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -2538,7 +2535,7 @@
         <v>1.20561650569981E-4</v>
       </c>
       <c r="O43">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -2579,7 +2576,7 @@
         <v>2.1291886353864601E-4</v>
       </c>
       <c r="O44">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -2626,7 +2623,7 @@
         <v>2.6848050976698599E-5</v>
       </c>
       <c r="O45">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -2673,7 +2670,7 @@
         <v>2.55978120902919E-5</v>
       </c>
       <c r="O46">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -2714,7 +2711,7 @@
         <v>1.69878118727325E-4</v>
       </c>
       <c r="O47">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -2755,7 +2752,7 @@
         <v>2.08865744616453E-4</v>
       </c>
       <c r="O48">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -2797,7 +2794,7 @@
       </c>
       <c r="M49" s="2"/>
       <c r="O49">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -2839,7 +2836,7 @@
       </c>
       <c r="M50" s="2"/>
       <c r="O50">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -2881,7 +2878,7 @@
       </c>
       <c r="M51" s="2"/>
       <c r="O51">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -2923,7 +2920,7 @@
       </c>
       <c r="M52" s="2"/>
       <c r="O52">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -3052,7 +3049,7 @@
         <v>1.8238132312025599E-4</v>
       </c>
       <c r="O55">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -3134,7 +3131,7 @@
         <v>1.4747665626202E-4</v>
       </c>
       <c r="O57">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -3175,7 +3172,7 @@
         <v>1.2017614464863E-4</v>
       </c>
       <c r="O58">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -3222,7 +3219,7 @@
         <v>3.8755979804672398E-5</v>
       </c>
       <c r="O59">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -3304,7 +3301,7 @@
         <v>3.4186889757685502E-4</v>
       </c>
       <c r="O61">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -3351,7 +3348,7 @@
         <v>9.0701967931265604E-7</v>
       </c>
       <c r="O62">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -3392,7 +3389,7 @@
         <v>1.7079262240544201E-4</v>
       </c>
       <c r="O63">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -3434,7 +3431,7 @@
       </c>
       <c r="M64" s="2"/>
       <c r="O64">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -3475,7 +3472,7 @@
         <v>2.2947195837587399E-4</v>
       </c>
       <c r="O65">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -3558,7 +3555,7 @@
       </c>
       <c r="M67" s="2"/>
       <c r="O67">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -3599,7 +3596,7 @@
         <v>2.11913451866109E-4</v>
       </c>
       <c r="O68">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -3687,7 +3684,7 @@
         <v>1.8162129493012999E-4</v>
       </c>
       <c r="O70">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
@@ -3734,7 +3731,7 @@
         <v>2.64697796016968E-23</v>
       </c>
       <c r="O71">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
@@ -3775,7 +3772,7 @@
         <v>1.4809516726626101E-4</v>
       </c>
       <c r="O72">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
@@ -3817,7 +3814,7 @@
       </c>
       <c r="M73" s="2"/>
       <c r="O73">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
@@ -3858,7 +3855,7 @@
         <v>1.84236715061704E-4</v>
       </c>
       <c r="O74">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
@@ -3900,7 +3897,7 @@
       </c>
       <c r="M75" s="2"/>
       <c r="O75">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
@@ -3941,7 +3938,7 @@
         <v>1.3218046134170499E-4</v>
       </c>
       <c r="O76">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
@@ -3988,7 +3985,7 @@
         <v>1.6514182305984099E-5</v>
       </c>
       <c r="O77">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
@@ -4029,7 +4026,7 @@
         <v>1.6612236158404999E-4</v>
       </c>
       <c r="O78">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
@@ -4071,7 +4068,7 @@
       </c>
       <c r="M79" s="2"/>
       <c r="O79">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
@@ -4112,7 +4109,7 @@
         <v>1.68995832905907E-4</v>
       </c>
       <c r="O80">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
@@ -4153,7 +4150,7 @@
         <v>1.7877457943692E-4</v>
       </c>
       <c r="O81">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
@@ -4194,7 +4191,7 @@
         <v>2.0314527362417199E-4</v>
       </c>
       <c r="O82">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
@@ -4235,7 +4232,7 @@
         <v>1.98759168455201E-4</v>
       </c>
       <c r="O83">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
@@ -4282,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="O84">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
@@ -4323,7 +4320,7 @@
         <v>1.7059548523128601E-4</v>
       </c>
       <c r="O85">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
@@ -4447,7 +4444,7 @@
         <v>1.94780967942857E-4</v>
       </c>
       <c r="O88">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
@@ -4488,7 +4485,7 @@
         <v>2.6321620550893797E-4</v>
       </c>
       <c r="O89">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
@@ -4529,7 +4526,7 @@
         <v>1.63199201612784E-4</v>
       </c>
       <c r="O90">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
@@ -4617,7 +4614,7 @@
         <v>8.6925397098185902E-5</v>
       </c>
       <c r="O92">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
@@ -4664,7 +4661,7 @@
         <v>2.2252346496605801E-5</v>
       </c>
       <c r="O93">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
@@ -4705,7 +4702,7 @@
         <v>1.6297138425899001E-4</v>
       </c>
       <c r="O94">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
@@ -4752,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="O95">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
@@ -4793,7 +4790,7 @@
         <v>2.24216066939383E-4</v>
       </c>
       <c r="O96">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
@@ -4834,7 +4831,7 @@
         <v>2.1936680306976E-4</v>
       </c>
       <c r="O97">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
@@ -4881,7 +4878,7 @@
         <v>1.3952238792473601E-5</v>
       </c>
       <c r="O98">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
@@ -4970,7 +4967,7 @@
       </c>
       <c r="M100" s="2"/>
       <c r="O100">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
@@ -5017,7 +5014,7 @@
         <v>2.0560288374743501E-5</v>
       </c>
       <c r="O101">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
@@ -5058,7 +5055,7 @@
         <v>1.5775044591868E-4</v>
       </c>
       <c r="O102">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
@@ -5099,7 +5096,7 @@
         <v>2.3332255591321599E-4</v>
       </c>
       <c r="O103">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
@@ -5140,7 +5137,7 @@
         <v>2.3416377326979299E-4</v>
       </c>
       <c r="O104">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
@@ -5181,7 +5178,7 @@
         <v>1.87110649214764E-4</v>
       </c>
       <c r="O105">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
@@ -5222,7 +5219,7 @@
         <v>3.14725936307866E-4</v>
       </c>
       <c r="O106">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
@@ -5263,7 +5260,7 @@
         <v>2.1875740559922899E-4</v>
       </c>
       <c r="O107">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
@@ -5304,7 +5301,7 @@
         <v>2.0362348745623401E-4</v>
       </c>
       <c r="O108">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
@@ -5351,7 +5348,7 @@
         <v>2.4333192600286599E-5</v>
       </c>
       <c r="O109">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
@@ -5392,7 +5389,7 @@
         <v>9.49110394144944E-5</v>
       </c>
       <c r="O110">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
@@ -5481,7 +5478,7 @@
       </c>
       <c r="M112" s="2"/>
       <c r="O112">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
@@ -5522,7 +5519,7 @@
         <v>2.2343997669458301E-4</v>
       </c>
       <c r="O113">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
@@ -5563,7 +5560,7 @@
         <v>1.7145574889552501E-4</v>
       </c>
       <c r="O114">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
@@ -5604,7 +5601,7 @@
         <v>1.5926357346952399E-4</v>
       </c>
       <c r="O115">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
@@ -5645,7 +5642,7 @@
         <v>1.3863672245423801E-4</v>
       </c>
       <c r="O116">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
@@ -5687,7 +5684,7 @@
       </c>
       <c r="M117" s="2"/>
       <c r="O117">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
@@ -5728,7 +5725,7 @@
         <v>1.74525472900535E-4</v>
       </c>
       <c r="O118">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
@@ -5769,7 +5766,7 @@
         <v>2.5210673357949802E-4</v>
       </c>
       <c r="O119">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
@@ -5816,7 +5813,7 @@
         <v>2.2412096161394201E-5</v>
       </c>
       <c r="O120">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
@@ -5857,7 +5854,7 @@
         <v>1.3540665727264701E-4</v>
       </c>
       <c r="O121">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
@@ -5945,7 +5942,7 @@
         <v>2.1376204330039101E-5</v>
       </c>
       <c r="O123">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
@@ -5987,7 +5984,7 @@
       </c>
       <c r="M124" s="2"/>
       <c r="O124">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
@@ -6027,8 +6024,8 @@
       <c r="L125">
         <v>2.5025864976665601E-4</v>
       </c>
-      <c r="O125" s="3">
-        <v>525</v>
+      <c r="O125">
+        <v>527</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
@@ -6069,7 +6066,7 @@
         <v>2.1379226124409301E-4</v>
       </c>
       <c r="O126">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
@@ -6111,7 +6108,7 @@
       </c>
       <c r="M127" s="2"/>
       <c r="O127">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
@@ -6158,7 +6155,7 @@
         <v>5.8232595387709201E-5</v>
       </c>
       <c r="O128">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
@@ -6240,7 +6237,7 @@
         <v>1.9683887520327499E-4</v>
       </c>
       <c r="O130">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
@@ -6281,7 +6278,7 @@
         <v>1.4846662528141601E-4</v>
       </c>
       <c r="O131">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
@@ -6322,7 +6319,7 @@
         <v>3.1619251790523798E-4</v>
       </c>
       <c r="O132">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
@@ -6363,7 +6360,7 @@
         <v>2.5520921228599299E-4</v>
       </c>
       <c r="O133">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
@@ -6405,7 +6402,7 @@
       </c>
       <c r="M134" s="2"/>
       <c r="O134">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
@@ -6446,7 +6443,7 @@
         <v>2.4624244491361998E-4</v>
       </c>
       <c r="O135">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
@@ -6487,7 +6484,7 @@
         <v>2.1140360881982001E-4</v>
       </c>
       <c r="O136">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
@@ -6534,7 +6531,7 @@
         <v>2.2876124006519299E-5</v>
       </c>
       <c r="O137">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
@@ -6575,7 +6572,7 @@
         <v>2.58644215696394E-4</v>
       </c>
       <c r="O138">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
